--- a/server_files/excel_template.xlsx
+++ b/server_files/excel_template.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG4000\Desktop\comms\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG4000\Desktop\Barko\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54CB498-9F0A-452A-BF91-7DFA74EC0804}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E2D6D3-312A-45CC-A544-23C70EB1D025}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D76963E8-864B-457D-9DF5-20326BDCEA33}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D76963E8-864B-457D-9DF5-20326BDCEA33}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>Count</t>
   </si>
@@ -58,43 +57,154 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Suburb</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
-    <t>Postal Code</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
-    <t>DOB (mm/dd/yyyy)</t>
-  </si>
-  <si>
-    <t>Mobile/Tel Nos.</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
     <t>Province</t>
   </si>
   <si>
-    <t>Contact Number/s</t>
+    <t>Contact Number(s)</t>
+  </si>
+  <si>
+    <t>SHIP_1</t>
+  </si>
+  <si>
+    <t>Auckland</t>
+  </si>
+  <si>
+    <t>Travolta</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>+64226739516</t>
+  </si>
+  <si>
+    <t>Kalalo</t>
+  </si>
+  <si>
+    <t>Ivy</t>
+  </si>
+  <si>
+    <t>Medrano</t>
+  </si>
+  <si>
+    <t>2 Sunshine St</t>
+  </si>
+  <si>
+    <t>Batangas</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>+639158577500</t>
+  </si>
+  <si>
+    <t>SHIP_2</t>
+  </si>
+  <si>
+    <t>Foxx</t>
+  </si>
+  <si>
+    <t>Jamie</t>
+  </si>
+  <si>
+    <t>+64211052385</t>
+  </si>
+  <si>
+    <t>Balbin</t>
+  </si>
+  <si>
+    <t>Emelva</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>48 Gemini Way</t>
+  </si>
+  <si>
+    <t>Davao</t>
+  </si>
+  <si>
+    <t>Davai</t>
+  </si>
+  <si>
+    <t>+639083842100</t>
+  </si>
+  <si>
+    <t>SHIP_3</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Kane</t>
+  </si>
+  <si>
+    <t>Patigdas</t>
+  </si>
+  <si>
+    <t>Gladdy</t>
+  </si>
+  <si>
+    <t>59 Somserset Street</t>
+  </si>
+  <si>
+    <t>General Trias</t>
+  </si>
+  <si>
+    <t>Cavite</t>
+  </si>
+  <si>
+    <t>+639067079199</t>
+  </si>
+  <si>
+    <t>SHIP_4</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Whitney</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>+64211052395</t>
+  </si>
+  <si>
+    <t>Quindo</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Mamaradlo</t>
+  </si>
+  <si>
+    <t>30 Bagus Way</t>
+  </si>
+  <si>
+    <t>+639083932100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,21 +215,21 @@
     </font>
     <font>
       <b/>
-      <sz val="8"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,11 +248,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -151,22 +276,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,286 +604,1104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6CFABE-B520-458B-807B-76EBB7A64E59}">
-  <dimension ref="A1:Y4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F6C0FE-C9D2-4B77-A5CF-E298AC22F6EE}">
+  <dimension ref="A1:Q140"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection sqref="A1:Y1"/>
+    <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="14" max="14" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.6328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17" style="4" customWidth="1"/>
+    <col min="6" max="7" width="21.7265625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.453125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24.26953125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17.1796875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.7265625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="19.36328125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="29" style="4" customWidth="1"/>
+    <col min="14" max="14" width="15.36328125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.7265625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="17.36328125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="19.90625" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>35</v>
+      </c>
+      <c r="B2">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" s="6" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="8"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="8"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F6C0FE-C9D2-4B77-A5CF-E298AC22F6EE}">
-  <dimension ref="A1:Y1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="66" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29" customWidth="1"/>
-    <col min="24" max="24" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="I2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>33</v>
+      </c>
+      <c r="B3">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="4" t="s">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" s="6" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="I3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4"/>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="I47" s="9"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="I49" s="9"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="I51" s="9"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="I52" s="9"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="9"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="I54" s="9"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="9"/>
+      <c r="I55" s="9"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="9"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="I57" s="9"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
+      <c r="I58" s="9"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="9"/>
+      <c r="I59" s="9"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="9"/>
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
+      <c r="I61" s="9"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="9"/>
+      <c r="I62" s="9"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="9"/>
+      <c r="I63" s="9"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="9"/>
+      <c r="I64" s="9"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
+      <c r="I65" s="9"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="9"/>
+      <c r="I66" s="9"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="9"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="9"/>
+      <c r="I68" s="9"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
+      <c r="I69" s="9"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="9"/>
+      <c r="I71" s="9"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
+      <c r="I72" s="9"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="9"/>
+      <c r="I74" s="9"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
+      <c r="I75" s="9"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="9"/>
+      <c r="I76" s="9"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
+      <c r="I77" s="9"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="9"/>
+      <c r="I78" s="9"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="9"/>
+      <c r="I79" s="9"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="9"/>
+      <c r="I80" s="9"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
+      <c r="I81" s="9"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="9"/>
+      <c r="I82" s="9"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="9"/>
+      <c r="I83" s="9"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="9"/>
+      <c r="I84" s="9"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="9"/>
+      <c r="I85" s="9"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="9"/>
+      <c r="I86" s="9"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="9"/>
+      <c r="I87" s="9"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="9"/>
+      <c r="I88" s="9"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="9"/>
+      <c r="I89" s="9"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="9"/>
+      <c r="I90" s="9"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="9"/>
+      <c r="I91" s="9"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="9"/>
+      <c r="I92" s="9"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="9"/>
+      <c r="I93" s="9"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="9"/>
+      <c r="I94" s="9"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="9"/>
+      <c r="I95" s="9"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="9"/>
+      <c r="I96" s="9"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="9"/>
+      <c r="I97" s="9"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="9"/>
+      <c r="I98" s="9"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="9"/>
+      <c r="I99" s="9"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="9"/>
+      <c r="I100" s="9"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="9"/>
+      <c r="I101" s="9"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="9"/>
+      <c r="I102" s="9"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="9"/>
+      <c r="I103" s="9"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="9"/>
+      <c r="I104" s="9"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="9"/>
+      <c r="I105" s="9"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="9"/>
+      <c r="I106" s="9"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="9"/>
+      <c r="I107" s="9"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="9"/>
+      <c r="I108" s="9"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="9"/>
+      <c r="I109" s="9"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="9"/>
+      <c r="I110" s="9"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="9"/>
+      <c r="I111" s="9"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="9"/>
+      <c r="I112" s="9"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="9"/>
+      <c r="I113" s="9"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="9"/>
+      <c r="I114" s="9"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="9"/>
+      <c r="I115" s="9"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="9"/>
+      <c r="I116" s="9"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="9"/>
+      <c r="I117" s="9"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="9"/>
+      <c r="I118" s="9"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="9"/>
+      <c r="I119" s="9"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="9"/>
+      <c r="I120" s="9"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="9"/>
+      <c r="I121" s="9"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="9"/>
+      <c r="I122" s="9"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="9"/>
+      <c r="I123" s="9"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="9"/>
+      <c r="I124" s="9"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="9"/>
+      <c r="I125" s="9"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="9"/>
+      <c r="I126" s="9"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="9"/>
+      <c r="I127" s="9"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="9"/>
+      <c r="I128" s="9"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="9"/>
+      <c r="I129" s="9"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="9"/>
+      <c r="I130" s="9"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="9"/>
+      <c r="I131" s="9"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="9"/>
+      <c r="I132" s="9"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="9"/>
+      <c r="I133" s="9"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="9"/>
+      <c r="I134" s="9"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="9"/>
+      <c r="I135" s="9"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="9"/>
+      <c r="I136" s="9"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="9"/>
+      <c r="I137" s="9"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="9"/>
+      <c r="I138" s="9"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="9"/>
+      <c r="I139" s="9"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="9"/>
+      <c r="I140" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server_files/excel_template.xlsx
+++ b/server_files/excel_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG4000\Desktop\Barko\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E2D6D3-312A-45CC-A544-23C70EB1D025}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D280CA4-24DF-41A0-B24A-637C12FEEF37}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D76963E8-864B-457D-9DF5-20326BDCEA33}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Count</t>
   </si>
@@ -67,138 +67,6 @@
   </si>
   <si>
     <t>Contact Number(s)</t>
-  </si>
-  <si>
-    <t>SHIP_1</t>
-  </si>
-  <si>
-    <t>Auckland</t>
-  </si>
-  <si>
-    <t>Travolta</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>+64226739516</t>
-  </si>
-  <si>
-    <t>Kalalo</t>
-  </si>
-  <si>
-    <t>Ivy</t>
-  </si>
-  <si>
-    <t>Medrano</t>
-  </si>
-  <si>
-    <t>2 Sunshine St</t>
-  </si>
-  <si>
-    <t>Batangas</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>+639158577500</t>
-  </si>
-  <si>
-    <t>SHIP_2</t>
-  </si>
-  <si>
-    <t>Foxx</t>
-  </si>
-  <si>
-    <t>Jamie</t>
-  </si>
-  <si>
-    <t>+64211052385</t>
-  </si>
-  <si>
-    <t>Balbin</t>
-  </si>
-  <si>
-    <t>Emelva</t>
-  </si>
-  <si>
-    <t>More</t>
-  </si>
-  <si>
-    <t>48 Gemini Way</t>
-  </si>
-  <si>
-    <t>Davao</t>
-  </si>
-  <si>
-    <t>Davai</t>
-  </si>
-  <si>
-    <t>+639083842100</t>
-  </si>
-  <si>
-    <t>SHIP_3</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>Kane</t>
-  </si>
-  <si>
-    <t>Patigdas</t>
-  </si>
-  <si>
-    <t>Gladdy</t>
-  </si>
-  <si>
-    <t>59 Somserset Street</t>
-  </si>
-  <si>
-    <t>General Trias</t>
-  </si>
-  <si>
-    <t>Cavite</t>
-  </si>
-  <si>
-    <t>+639067079199</t>
-  </si>
-  <si>
-    <t>SHIP_4</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Whitney</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>+64211052395</t>
-  </si>
-  <si>
-    <t>Quindo</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Mamaradlo</t>
-  </si>
-  <si>
-    <t>30 Bagus Way</t>
-  </si>
-  <si>
-    <t>+639083932100</t>
   </si>
 </sst>
 </file>
@@ -255,7 +123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -272,11 +140,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -291,6 +168,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,7 +487,7 @@
   <dimension ref="A1:Q140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="54" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -686,212 +565,80 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>35</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2" s="12"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="13"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2" s="11"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>33</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3" s="13"/>
+      <c r="E3"/>
       <c r="F3"/>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>36</v>
-      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="13"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3" s="11"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>30</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4" s="13"/>
+      <c r="E4"/>
       <c r="F4"/>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="13"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4" s="11"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>31</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5" s="13"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="13"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5" s="11"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
